--- a/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
+++ b/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinacleBanking\Bhatina_Reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\ProjectWorkspace\CASA\ExportAndOutwrdBills\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6473AB3-AB83-479D-BCEA-BD63932C907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF14687-24C6-455D-8341-C29E9918E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -210,13 +210,10 @@
     <t>3945</t>
   </si>
   <si>
-    <t>3356</t>
-  </si>
-  <si>
-    <t>3361</t>
-  </si>
-  <si>
     <t>3363</t>
+  </si>
+  <si>
+    <t>3351</t>
   </si>
 </sst>
 </file>
@@ -687,23 +684,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DBF89B-D9D8-44EC-BCAF-4680FBAE7AA0}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.6640625"/>
-    <col min="2" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.109375"/>
-    <col min="4" max="4" customWidth="true" style="2" width="29.6640625"/>
-    <col min="5" max="6" style="2" width="8.88671875"/>
-    <col min="7" max="7" customWidth="true" style="2" width="16.6640625"/>
-    <col min="8" max="15" style="2" width="8.88671875"/>
-    <col min="16" max="16" customWidth="true" style="2" width="19.44140625"/>
-    <col min="17" max="23" customWidth="true" style="2" width="28.0"/>
-    <col min="24" max="25" customWidth="true" style="2" width="23.77734375"/>
-    <col min="26" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="19.44140625" style="2" customWidth="1"/>
+    <col min="17" max="23" width="28" style="2" customWidth="1"/>
+    <col min="24" max="25" width="23.77734375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -800,7 +797,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>21</v>
@@ -844,9 +841,7 @@
       <c r="V2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>59</v>
-      </c>
+      <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
@@ -863,9 +858,6 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" t="s" s="2">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6"/>
@@ -939,14 +931,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="23.77734375"/>
-    <col min="4" max="18" customWidth="true" style="2" width="20.5546875"/>
-    <col min="19" max="19" customWidth="true" style="2" width="22.77734375"/>
-    <col min="20" max="20" customWidth="true" style="2" width="10.88671875"/>
-    <col min="21" max="21" style="2" width="8.88671875"/>
-    <col min="22" max="22" customWidth="true" style="2" width="21.6640625"/>
-    <col min="23" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
+    <col min="4" max="18" width="20.5546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="2"/>
+    <col min="22" max="22" width="21.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1115,14 +1107,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="23.77734375"/>
-    <col min="4" max="7" customWidth="true" style="2" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" style="2" width="22.77734375"/>
-    <col min="9" max="9" customWidth="true" style="2" width="10.88671875"/>
-    <col min="10" max="10" style="2" width="8.88671875"/>
-    <col min="11" max="11" customWidth="true" style="2" width="21.6640625"/>
-    <col min="12" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="21.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1192,7 +1184,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1206,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1224,15 +1216,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="14.77734375"/>
-    <col min="4" max="5" style="2" width="8.88671875"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.33203125"/>
-    <col min="7" max="7" customWidth="true" style="2" width="25.109375"/>
-    <col min="8" max="8" customWidth="true" style="2" width="16.77734375"/>
-    <col min="9" max="10" style="2" width="8.88671875"/>
-    <col min="11" max="11" customWidth="true" style="2" width="27.44140625"/>
-    <col min="12" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="26.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="27.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1320,15 +1312,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="14.77734375"/>
-    <col min="4" max="5" style="2" width="8.88671875"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.33203125"/>
-    <col min="7" max="7" customWidth="true" style="2" width="25.109375"/>
-    <col min="8" max="8" customWidth="true" style="2" width="16.77734375"/>
-    <col min="9" max="10" style="2" width="8.88671875"/>
-    <col min="11" max="11" customWidth="true" style="2" width="27.44140625"/>
-    <col min="12" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="26.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="27.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1416,10 +1408,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.5546875"/>
-    <col min="4" max="4" customWidth="true" style="2" width="33.88671875"/>
-    <col min="5" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1447,7 +1439,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1461,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1479,15 +1471,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="2" width="8.88671875"/>
-    <col min="3" max="4" customWidth="true" style="2" width="17.5546875"/>
-    <col min="5" max="5" customWidth="true" style="2" width="33.88671875"/>
-    <col min="6" max="10" style="2" width="8.88671875"/>
-    <col min="11" max="11" customWidth="true" style="2" width="16.33203125"/>
-    <col min="12" max="16" style="2" width="8.88671875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.109375"/>
-    <col min="18" max="18" customWidth="true" style="2" width="30.44140625"/>
-    <col min="19" max="16384" style="2" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="2" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.44140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1517,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="26"/>
     </row>
@@ -1532,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1549,15 +1541,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2DD2E987CFBAD4AAC4AE2049DDFCBE7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2060c7c22b11bd413bcda37b8a5aba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3565896d-76d4-401e-9808-50321818d4b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb79d650d76a6eb54150fcfb1156d500" ns3:_="">
     <xsd:import namespace="3565896d-76d4-401e-9808-50321818d4b7"/>
@@ -1737,6 +1720,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8532CADE-11C1-40AF-A308-860D7E41A026}">
   <ds:schemaRefs/>
@@ -1744,13 +1736,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
+++ b/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\ProjectWorkspace\CASA\ExportAndOutwrdBills\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF14687-24C6-455D-8341-C29E9918E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045CC9B-DE20-455D-A11C-99373C3217E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     <t>3363</t>
   </si>
   <si>
-    <t>3351</t>
+    <t>3361</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DBF89B-D9D8-44EC-BCAF-4680FBAE7AA0}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1541,6 +1541,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2DD2E987CFBAD4AAC4AE2049DDFCBE7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2060c7c22b11bd413bcda37b8a5aba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3565896d-76d4-401e-9808-50321818d4b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb79d650d76a6eb54150fcfb1156d500" ns3:_="">
     <xsd:import namespace="3565896d-76d4-401e-9808-50321818d4b7"/>
@@ -1720,15 +1729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8532CADE-11C1-40AF-A308-860D7E41A026}">
   <ds:schemaRefs/>
@@ -1736,13 +1736,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
+++ b/CASA/ExportAndOutwrdBills/resources/FBTCDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\ProjectWorkspace\CASA\ExportAndOutwrdBills\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045CC9B-DE20-455D-A11C-99373C3217E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F545B5-10F6-46A9-8E08-45A97537A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     <t>3363</t>
   </si>
   <si>
-    <t>3361</t>
+    <t>3376</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1541,15 +1541,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2DD2E987CFBAD4AAC4AE2049DDFCBE7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2060c7c22b11bd413bcda37b8a5aba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3565896d-76d4-401e-9808-50321818d4b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb79d650d76a6eb54150fcfb1156d500" ns3:_="">
     <xsd:import namespace="3565896d-76d4-401e-9808-50321818d4b7"/>
@@ -1729,6 +1720,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8532CADE-11C1-40AF-A308-860D7E41A026}">
   <ds:schemaRefs/>
@@ -1736,13 +1736,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15283223-3071-4E89-B986-3F6A53560EE5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180344B2-D29D-434C-9ADE-C64AC1F069F3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>